--- a/src/main/resources/static/sample_file/pupil_account_template.xlsx
+++ b/src/main/resources/static/sample_file/pupil_account_template.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -58,9 +58,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>ngueynvana@gmail.com</t>
-  </si>
-  <si>
     <t>Số điện thoại</t>
   </si>
   <si>
@@ -91,6 +88,13 @@
   </si>
   <si>
     <t>abc123</t>
+  </si>
+  <si>
+    <t>Lớp
+(bắt buộc)</t>
+  </si>
+  <si>
+    <t>nguyenvana@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -463,7 +467,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,31 +493,31 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -527,10 +531,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <v>123456789</v>
@@ -539,10 +543,10 @@
         <v>20151011</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
